--- a/A3/LCA_Advanced_BIM_to_Python.xlsx
+++ b/A3/LCA_Advanced_BIM_to_Python.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Studium\DTU\2_Semester\BIM\A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\BIManalyst_g_22\A3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EB618B-DAD5-4CCE-B371-91CDE9DA3139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A288947B-06A7-4304-B799-247E3D1AE2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" tabRatio="598" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" tabRatio="598" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
